--- a/BalanceSheet/CB_bal.xlsx
+++ b/BalanceSheet/CB_bal.xlsx
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1684000000.0</v>
+        <v>1841000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1836000000.0</v>
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>26487000000.0</v>
+        <v>26689000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>26278000000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>28171000000.0</v>
+        <v>28530000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>28114000000.0</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>118979000000.0</v>
+        <v>122965000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>122612000000.0</v>
@@ -1081,10 +1081,8 @@
           <t>Long Term Assets (Tax, Deferred)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>5443000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5402000000.0</v>
@@ -1211,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>23666000000.0</v>
+        <v>13878000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>13435000000.0</v>
@@ -1338,7 +1336,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>163806000000.0</v>
+        <v>163447000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>162660000000.0</v>
@@ -1592,7 +1590,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>87295000000.0</v>
+        <v>113751000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>111936000000.0</v>
@@ -1718,10 +1716,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>1405000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1405000000.0</v>
@@ -1848,7 +1844,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>87295000000.0</v>
+        <v>115156000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>113341000000.0</v>
@@ -1974,10 +1970,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>14879000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15623000000.0</v>
@@ -2103,10 +2097,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>482000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>892000000.0</v>
@@ -2425,10 +2417,8 @@
           <t>Liabilities (Preferred Stock)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>308000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>308000000.0</v>
@@ -2682,7 +2672,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>45606000000.0</v>
+        <v>17745000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>17992000000.0</v>
@@ -2935,10 +2925,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>9318000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9815000000.0</v>
@@ -3064,10 +3052,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>11064000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>11064000000.0</v>
@@ -3193,10 +3179,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>41637000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>39337000000.0</v>
@@ -3322,10 +3306,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>3901000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3644000000.0</v>
@@ -3654,10 +3636,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>59076000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>59441000000.0</v>
@@ -4037,10 +4017,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>449677000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>450733000.0</v>
@@ -4309,7 +4287,7 @@
         <v>15431000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>15539000000.0</v>
+        <v>14628000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>13122000000.0</v>
@@ -4438,7 +4416,7 @@
         <v>17089000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>17185000000.0</v>
+        <v>16274000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>14711000000.0</v>
